--- a/data_pipelining/output/merged_processed_leads.xlsx
+++ b/data_pipelining/output/merged_processed_leads.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,25 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ROLE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>COMPANY</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>FIRST NAME</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>LAST NAME</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>COMPANY</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>ROLE</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>UNNAMED: 4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>UNNAMED: 5</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>UNNAMED: 6</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>MERGE STATUS</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>OLD EMAIL</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>EMAIL</t>
         </is>
@@ -463,81 +488,2200 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Alice</t>
+          <t>Head of US Growth and Marketing | 21CB | Building the Most Influential Brands of Our Time</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Samsung</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Acme Corp</t>
+          <t>Melissa</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Marketing Manager</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>alice.johnson@acmecorp.com</t>
+          <t>Mcnutt</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>BOUNCED</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Melissa.McNutt@Samsung.com</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>melissa.mcnutt@samsung.com</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Bob</t>
+          <t>Head of US Marketing @ Inbenta</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Salesforce</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Joshua</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>Smith</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Global Tech</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Product Director</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>bob.smith@globaltech.com</t>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>BOUNCED</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>JSmith@Salesforce.com</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>joshua.smith@salesforce.com</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Carol</t>
+          <t>Head of US Social Marketing for Series and ...</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Netflix</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Green Energy</t>
+          <t>Max</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Operations Manager</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>carol.white@greenenergy.com</t>
+          <t>Mills</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>EMAIL_SENT</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>MMills@Netflix.com</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>max.mills@netflix.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Health Systems Marketing Lead, Dermatology</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pfizer</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Christy</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Storrs</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>EMAIL_SENT</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Christy.Storrs@Pfizer.com</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>christy.storrs@pfizer.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Helping B2B companies improve Commercial capabilities for Strategic Planning, Marketing, Product and Sales functions.</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Timothy</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Wilson</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>EMAIL_SENT</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>TWilson@Costco.com</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>twilson@costco.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Hematology Marketing Strategy Lead | Pfizer Oncology</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pfizer</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Wilma</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Pharmd</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>BOUNCED</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Wilma.PharmD@Pfizer.com</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>wilma.pharmd@pfizer.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>High Impact Marketing Leader</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Uber</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Tim</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Suarez</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>BOUNCED</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Tim@Uber.com</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>tim@uber.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>High-Tech Marketing Exec | Inspiring Leader | Animal Advocate | Advisory Board Member</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Paypal</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Linette</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Atterbury</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>EMAIL_SENT</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>LAtterbury@Paypal.com</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>l.atterbury@paypal.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Hiring and Marketing Manager at Phoenix Information Technologies</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Paypal</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Marc</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Foley</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>EMAIL_SENT</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>MFoley@Paypal.com</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>m.foley@paypal.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Hiring Top Marketing Talent for disruptive brands</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Target</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Nicole</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Herbeck</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>EMAIL_SENT</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Nicole.Herbeck@Target.com</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>nherbeck@target.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Honors Marketing, Psychology, and Entrepreneurship @ SMU | Marketing Consultant at the Intersection of Tech, Gen-Z, and Experiences</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Samsung</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Leon</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Pham</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>BOUNCED</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Leon.Pham@Samsung.com</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>leon.pham@samsung.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>HR &amp; Marketing Manager</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Airbnb</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Maikely</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Fischer</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>BOUNCED</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Maikely.Fischer@Airbnb.com</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>mfischer@airbnb.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>HR Business Partner / Property Management / Hospitality Guru / Sales and Marketing Director/Business Development</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Airbnb</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Brittany</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Glenn</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>BOUNCED</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Brittany.Glenn@Airbnb.com</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>bglenn@airbnb.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>HR Marketing Specialist</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Marriott</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>BOUNCED</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Brianna.Price@Marriott.com</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>brianna.price@marriott.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>HubSpot Partner | Inbound Marketing | CRM &amp; Sales | Content &amp; eCommerce | ️ Shopify Partner | Google, LinkedIn &amp; Facebook Ads | AI-Powered Digital Marketing | SAP Partners &amp; Customers</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Lonnie</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Ayers</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>BOUNCED</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>LAyers@Costco.com</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>layers@costco.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>I create marketing and sales campaigns and copy that generate leads and clients for business coaches, consultants and entrepreneurs. Clients include: Grant Cardone, Copy Chief, Strategic Profits, and Growth Labz</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Raul</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Vaughn</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>BOUNCED</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>RVaughn@Costco.com</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>rvaughn@costco.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>I Help CEOs Grow Their Startups Up to 17x The Startup CMO Providing Innovative Fractional CMO, Brand &amp; Marketing Services</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Fox</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Anthony</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Volpe</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>EMAIL_SENT</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Anthony.Volpe@Fox.com</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>anthony.volpe@fox.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>I help wellness and health experts attract dream clients with content marketing + personal branding</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Netflix</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Hannah</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Shtein</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>BOUNCED</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>HShtein@Netflix.com</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>hannah.shtein@netflix.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>I specialize in helping businesses grow and scale by implementing tailored marketing strategies.</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Shane</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Koreny</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>BOUNCED</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>SKoreny@Costco.com</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>skoreny@costco.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Impossible Foods Marketing Leader | The Marketing Academy 2023 Scholar | Stanford GSB | Coca-Cola</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Coca-Cola</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Sandy</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Chapman</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>BOUNCED</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>SChapman@Coca-Cola.com</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>schapman@coca-cola.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Incoming GOV IT Program Manager @ ALKU | Digital Marketing Student @ Virginia Tech | Co-CMO @ Cornucopia AI</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Tyler</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Swain</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>BOUNCED</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>TSwain@Costco.com</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>tswain@costco.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Incoming Social Marketing Intern</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Netflix</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Eli</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Hartman</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>BOUNCED</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>EHartman@netflix.com</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>eli.hartman@netflix.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Influencer + Integrations Marketing Lead</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Spotify</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Christopher</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Hill</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>EMAIL_SENT</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>CHill@Spotify.com</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>christopher.hill@spotify.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Influencer Marketing</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Nike</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Kiron</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Mitchell</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>BOUNCED</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Kiron.Mitchell@Nike.com</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>kiron.mitchell@nike.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Influencer Marketing @ Dropbox</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Fox</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Renee</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Roth</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>EMAIL_SENT</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Renee.Roth@Fox.com</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>renee.roth@fox.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Influencer Marketing at PayPal</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Paypal</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Le</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Pham</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>EMAIL_SENT</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>LPham@Paypal.com</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>l.pham@paypal.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Influencer Marketing Director</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Nike</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Alessandra</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>BOUNCED</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Alessandra.M@Nike.com</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>alessandra.m@nike.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Influencer Marketing Director for Asia Pacif and Latin America</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Nike</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Alessandra</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Marder</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>EMAIL_OPENED</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Alessandra.Marder@Nike.com</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>alessandra.marder@nike.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Influencer Marketing Manager at Unilever Prestige-Ren Clean Skincare</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Procter &amp; Gamble</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Hannah</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Ameen</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>EMAIL_OPENED</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Hannah.A@pg.com</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>hannah.ameen@procter&amp;gamble.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Influencer Marketing Manager, North America Integrated Media</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Nike</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Brittany</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Celata</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>BOUNCED</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Brittany.Celata@Nike.com</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>brittany.celata@nike.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Influencer Marketing Professional</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Fox</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Joshua</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Santos</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>EMAIL_SENT</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Joshua.Santos@Fox.com</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>joshua.santos@fox.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Inhouse marketing</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Marriott</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Joufrane</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>BOUNCED</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Joseph.Joufrane@Marriott.com</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>joseph.joufrane@marriott.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Innovation Channel Alliances, Pfizer Chief Marketing Office</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Pfizer</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Elsa</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Boukadoum</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>BOUNCED</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Elsa.Boukadoum@Pfizer.com</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>elsa.boukadoum@pfizer.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Innovation Executive in Food &amp; Beverage CPG</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Fox</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Phil</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Fox</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>EMAIL_SENT</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Phil.Fox@Fox.com</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>phil.fox@fox.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Innovation. Customer Insights. Brand Strategy. Marketing Problem Solving.</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Bruce</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Peoples</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>BOUNCED</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>BPeoples@Costco.com</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>bpeoples@costco.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Innovative Marketing Strategist &amp; Sales Expert | Transforming Businesses with Technology and Automation</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Tyson</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Delacruz</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>BOUNCED</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>TDeLaCruz@Costco.com</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>tdelacruz@costco.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Innovative marketing strategy architect</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Netflix</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Brayden</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Ainzuain</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>BOUNCED</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>BAinzuain@Netflix.com</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>brayden.ainzuain@netflix.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Innovative, customer-focused marketing leader with 15 years of experience in B2B, B2C, and SMB marketplaces and cloud technology</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Paypal</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Chris</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Wang</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>EMAIL_SENT</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>CWang@Paypal.com</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>c.wang@paypal.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Insights Driven Marketing Leader | Brand and Media Strategy | previously Airbnb, Netflix, agency</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Airbnb</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Rachael</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Pirkowski</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>BOUNCED</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Rachael.Pirkowski@Airbnb.com</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>rpirkowski@airbnb.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Inspirational Marketing Leader Delivering ROI</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Paypal</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Tim</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Pitt</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>EMAIL_SENT</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>TPITT@Paypal.com</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>t.pitt@paypal.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Integrated &amp; Multi-Channel Marketing Leader | Data-Driven Strategic Insights</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Exxonmobil</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Andrew</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Demotte</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>BOUNCED</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Andrew.DeMotte@ExxonMobil.com</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>andrew.demotte@exxonmobil.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Integrated Customer Marketing</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Workday</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Sabrina</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>BOUNCED</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Sabrina.B@Workday.com</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>sabrina.b@workday.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Integrated Marketing @ Meta | Ex- EA, Samsung, Grey</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Samsung</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Natalie</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Roberts</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>BOUNCED</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Natalie.Roberts@Samsung.com</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>natalie.roberts@samsung.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Integrated Marketing | Branded Entertainment | Partnership Activation | Campaign Management</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Fox</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Oakes</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>EMAIL_SENT</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Martin.Oakes@Fox.com</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>martin.oakes@fox.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Integrated Marketing | Social Media Marketing | Creative Strategist</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Airbnb</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Tristin</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>BOUNCED</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Tristin.Brown@Airbnb.com</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>tbrown@airbnb.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Integrated Marketing and Omnichannel Strategist (Consultant)</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Pfizer</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Melinda</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Stoker</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>BOUNCED</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Melinda.Stoker@Pfizer.com</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>melinda.stoker@pfizer.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Integrated Marketing at Ford | EMBA Kellogg</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Uber</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Jaife</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Rainelli</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>BOUNCED</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Jaife@Uber.com</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>jaife@uber.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Integrated Marketing Communications Manager</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Walmart</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Sana</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Khan</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>EMAIL_SENT</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>SKhan@Walmart.com</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>skhan@walmart.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Integrated Marketing Manager</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Netflix</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Alana</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Barden</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>EMAIL_SENT</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>ABarden@netflix.com</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>alana.barden@netflix.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Integrated Marketing Project Manager</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Workday</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Paula</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Gonzalez</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>EMAIL_SENT</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Paula.Gonzalez@Workday.com</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>paula.gonzalez@workday.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Integrated Marketing Senior Manager at Samsung</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Samsung</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Renee</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Wild</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>EMAIL_SENT</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Renee.Wild@Samsung.com</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>renee.wild@samsung.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Integrated Marketing Specialist</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Nike</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Cheyenne</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Ware</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>EMAIL_SENT</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Cheyenne.Ware@Nike.com</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>cheyenne.ware@nike.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Integrated Media Measurement @Coca-Cola | Ex-Meta, Visa, Hershey Co., Agency| Digital Marketing &amp; Media</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Coca-Cola</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Noelle</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Perez</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>EMAIL_SENT</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>NPerez@Coca-Cola.com</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>nperez@coca-cola.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Intern for Brand Marketing</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Nike</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Kelsey</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Thompson</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>EMAIL_SENT</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Kelsey.Thompson@Nike.com</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>kelsey.thompson@nike.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>International Marketing Executive | AI Evangelist | Top 50 Women Leaders in Georgia 2024 &amp; 2023</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Paypal</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Kristalyn</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Mumaw</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>EMAIL_SENT</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>KMumaw@Paypal.com</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>k.mumaw@paypal.com</t>
         </is>
       </c>
     </row>
